--- a/scripts/test_drag/index.xlsx
+++ b/scripts/test_drag/index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudoo\Documents\auto-key\scripts\test_drag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1975DBBC-F20C-493D-9A31-00061DFBADDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9E2EAB-1427-4031-A671-A1E64D7A70B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="5730" windowWidth="28800" windowHeight="12330" xr2:uid="{5B56EB7D-8F86-4E8F-B448-377A106F7C84}"/>
+    <workbookView xWindow="5745" yWindow="5985" windowWidth="27360" windowHeight="12330" xr2:uid="{5B56EB7D-8F86-4E8F-B448-377A106F7C84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
     <t>纵向偏移量 offset_y</t>
   </si>
   <si>
-    <t>指令类型：1. 单击 2. 双击 3. 右键 4. 输入 5. 等待 6. 滚轮 7. 快捷键 8. 按住/拖动</t>
+    <t>指令类型：1. 单击 2. 双击 3. 右键 4. 输入 5. 等待 6. 滚轮 7. 快捷键 8. 按住/拖动 9. 运行bat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,12 +500,12 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="66.875" customWidth="1"/>
+    <col min="1" max="1" width="85.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">

--- a/scripts/test_drag/index.xlsx
+++ b/scripts/test_drag/index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudoo\Documents\auto-key\scripts\test_drag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pan/projects/auto-key/scripts/test_drag/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9E2EAB-1427-4031-A671-A1E64D7A70B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832B8C9F-90EC-1F48-934F-E78D4991D358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="5985" windowWidth="27360" windowHeight="12330" xr2:uid="{5B56EB7D-8F86-4E8F-B448-377A106F7C84}"/>
+    <workbookView xWindow="5740" yWindow="5980" windowWidth="27360" windowHeight="12340" xr2:uid="{5B56EB7D-8F86-4E8F-B448-377A106F7C84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -97,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,7 +115,15 @@
     <t>纵向偏移量 offset_y</t>
   </si>
   <si>
-    <t>指令类型：1. 单击 2. 双击 3. 右键 4. 输入 5. 等待 6. 滚轮 7. 快捷键 8. 按住/拖动 9. 运行bat</t>
+    <t>drag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,9 +207,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -241,7 +247,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -347,7 +353,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -489,7 +495,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -500,17 +506,21 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="85.75" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -525,9 +535,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -539,9 +549,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>8</v>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1</v>
